--- a/biology/Botanique/Melogold/Melogold.xlsx
+++ b/biology/Botanique/Melogold/Melogold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Melogold, désigne un agrume hybride triploïde (3N chromosomes) de pamplemoussier Siamese Sweet [1] 2N sans acidité  (Citrus maxima (Burm.) Merr.) et le pomélo Marsh 4N (Citrus × paradisi Macfad.) développé à University of California Riverside par Robert K. Soost et James W. Cameronen en 1958 et commercialisé en 1986 lors d'une campagne qui vit également naitre Oroblanco[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melogold, désigne un agrume hybride triploïde (3N chromosomes) de pamplemoussier Siamese Sweet  2N sans acidité  (Citrus maxima (Burm.) Merr.) et le pomélo Marsh 4N (Citrus × paradisi Macfad.) développé à University of California Riverside par Robert K. Soost et James W. Cameronen en 1958 et commercialisé en 1986 lors d'une campagne qui vit également naitre Oroblanco.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre est vigoureux et à croissance rapide, son rendement est meilleur qu'Orobranco[2].
-Le fruit est de la taille d'un pamplemousse (Citrus maxima (Burm.) Merr.) moyen, aplati à la base, nettement plus gros qu'Oroblanco. Sa peau est d'un jaune lumineux. Sa pulpe est légèrement jaune et claire, spécialement douce à maturité, c'est-à-dire fin janvier. Une légère amertume, plus sensible au début et à la fin de la saison (qui va de décembre à mars), est due à de faible quantités des flavonoïdes amers y compris la naringine, la néohespéridine et la poncerine (495 ppm contre 440 ppm dans le jus d'Oroblanco)[3]. 
-Melogold a toujours été préféré dans les tests gustatifs à Marsh, et très proche d'Oroblanco[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre est vigoureux et à croissance rapide, son rendement est meilleur qu'Orobranco.
+Le fruit est de la taille d'un pamplemousse (Citrus maxima (Burm.) Merr.) moyen, aplati à la base, nettement plus gros qu'Oroblanco. Sa peau est d'un jaune lumineux. Sa pulpe est légèrement jaune et claire, spécialement douce à maturité, c'est-à-dire fin janvier. Une légère amertume, plus sensible au début et à la fin de la saison (qui va de décembre à mars), est due à de faible quantités des flavonoïdes amers y compris la naringine, la néohespéridine et la poncerine (495 ppm contre 440 ppm dans le jus d'Oroblanco). 
+Melogold a toujours été préféré dans les tests gustatifs à Marsh, et très proche d'Oroblanco.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Protection juridique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cultivar a été protégé lors de sa mise sur le marché, cette protection s'est achevée en 2005 [4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cultivar a été protégé lors de sa mise sur le marché, cette protection s'est achevée en 2005 .
 </t>
         </is>
       </c>
